--- a/comman/upload.xlsx
+++ b/comman/upload.xlsx
@@ -1,31 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\loadtestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\loadtestdata\comman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8FD36-D1FB-403C-9675-0AAEB57F9980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4283632-6037-4FE1-8D46-420801F1C9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1035" windowWidth="25680" windowHeight="14565" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="alarm_report" sheetId="2" r:id="rId2"/>
+    <sheet name="position_report" sheetId="3" r:id="rId3"/>
+    <sheet name="sensor_report" sheetId="4" r:id="rId4"/>
+    <sheet name="bubiao_report" sheetId="6" r:id="rId5"/>
+    <sheet name="sichuan_report" sheetId="7" r:id="rId6"/>
+    <sheet name="shanxi_report" sheetId="8" r:id="rId7"/>
+    <sheet name="puhuo_report" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C5F0B95E-AD0C-4E97-81F2-A1CCBEAF7ED2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+白天（凌晨6点到夜间10点）驾驶持续4h或夜间（夜间10点到凌晨6点）驾驶持续2h，跨时间段以4h计算，速度大于10km/h，未停止或慢速20min以上，则计算为疲劳，疲劳解除需要停止或慢速20min，则解除（可在历史轨迹核对数据）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{50BB9089-1304-46EC-A309-9685BF59E633}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1)    当速度大于限速值，则判断为超速报定位点，当满足超速定位点后60s的点均超速（至少一个），则记为一次超速报警，报警开始时间为定位点的时间
+2)    当速度小于限速值时，超速结束，结束时间为小于限速值的点上报的时间
+3)    特殊情况：不合格数据不进入山西超速判定（速度大于160或小于0，方向超过360或小于0，定位时间在20小时前，车牌号不是6-10位，车牌第一位不符合要求（规定汉字），车牌颜色不是123489，海拔大于6000或小于-200，经度纬度不在国内）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{2D37A6E3-7D0B-4E43-83C3-6F9A8D1A0BED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+合格数据排除，连续3个位置点构成的两段位移，计算两段位移的速度都&gt;160km/h，则第二个点计算为漂移点，即每个点是否漂移的判断需要前一个和后一个点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{4624AEB0-55DD-41F7-88DF-A5874E71E41A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+统计监控对象上报的轨迹不连续的情况
+轨迹连续：连续判断规则需过滤不合格数据，判断规则如下
+            当连续两点间计算距离&lt;2km，则该段轨迹连续
+            当连续两点间计算距离&gt;10km，则该段轨迹不连续
+            当两点间距离在2-10km，则作为连续轨迹累计，当第六段依然是该距离，则之后计算为不连续轨迹
+            在上一条情况下，如果出现两点距离&gt;10或&lt;2，则计数清0，并按第一第二条计算
+连续两点间的距离：是指两点经纬度的距离，而不是里程相减</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{580E0162-EC8F-4278-A713-050B89C83C07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前置条件：平台存在监控对象触发山西标准的异动报警
+山西标准异动报警触发条件：在禁行时段内，需要速度大于40km/h，时间大于10min才会触发</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F6CBB2C-D996-46EF-B2DE-32C124A04CEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+车辆类型为：货运车辆</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
   <si>
     <t>报警类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +302,657 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否触发？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳驾驶预警</t>
+  </si>
+  <si>
+    <t>碰撞预警</t>
+  </si>
+  <si>
+    <t>侧翻预警</t>
+  </si>
+  <si>
+    <t>位于位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶员引起报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急报警</t>
+  </si>
+  <si>
+    <t>超速报警</t>
+  </si>
+  <si>
+    <t>是否触发？（1：代表触发，0代表不触发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳驾驶</t>
+  </si>
+  <si>
+    <t>进出区域</t>
+  </si>
+  <si>
+    <t>进出线路</t>
+  </si>
+  <si>
+    <t>路段行驶时间不足/过长</t>
+  </si>
+  <si>
+    <t>当天累积驾驶超时</t>
+  </si>
+  <si>
+    <t>超时停车</t>
+  </si>
+  <si>
+    <t>路线偏离报警</t>
+  </si>
+  <si>
+    <t>车辆报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆VSS故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆油量异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆被盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆非法点火</t>
+  </si>
+  <si>
+    <t>车辆非法位移</t>
+  </si>
+  <si>
+    <t>非法开门报警</t>
+  </si>
+  <si>
+    <t>故障报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS模块发生故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS天线未接或被剪断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS天线短路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端主电源欠压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端主电源掉电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端LCD或显示器故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTS模块故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路运输证IC卡模块故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3传感器报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速报警(F3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加漏油报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎压报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载重报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车速传感器上传速度大于平台设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本未完善，暂时不报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温|高温1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限|上限 1|2两者公用一个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行|逆时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度等于1，正常为0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度等于1，正常为18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油|油量 脚本漏油写死，目前只有加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怠速里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油量报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">漏油量 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液体量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总油耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">瞬时流量 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗报表（跑行驶报表时已生成数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器里程报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">累积里程 </t>
+  </si>
+  <si>
+    <t>车速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正反转报表（1,2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计运行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工时检测方式 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态持续时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载重报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载重状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装载/卸载重量 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquid_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addoil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spilloil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oiltemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ztime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温低温报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ztt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计脉冲数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客流量报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上车人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下车人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台设置速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%(含)-50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%(含)以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间（min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高速度（km/h）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续超速统计(不能为客车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆异常统计（必须为客车，速度&gt;10km/h,持续时间&gt;5mins)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳驾驶报警明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速报警明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做到常规限速，夜间限速？道路级别限速？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂移数据报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次新增里程（km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常轨迹数据报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个距离很远的经纬度来回切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨2-5点运行报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度（km/h）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间不在2-5点，在报警查询可查到此报警，在此表查不到，此表只能查询2-5点的报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值班交接班记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频信号丢失报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频信号遮挡报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储存单元故障报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他视频设备故障报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客车超员报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常驾驶行为报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊报警录像达到存储阈值报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行alarm_report相关的报警，然后查询此表，凌晨2~5点运行：夜间行驶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章记录表</t>
+  </si>
+  <si>
+    <t>alarm_report相关报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +975,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,9 +1045,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,4 +1541,1587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0EF761-D511-4DF0-97F4-1603D34BE1BD}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8C4818-3FB0-4C05-990A-3BA5BE10BE5E}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>62</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACACEEA1-E2CE-428D-BA94-C3330C5761E6}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>600</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="10">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="10">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="10">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00680BFF-0132-4EB2-B854-788C4F963E34}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D163D-C7AD-43AD-AC38-096B62E888E4}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4">
+        <v>95</v>
+      </c>
+      <c r="I3" s="4">
+        <v>98</v>
+      </c>
+      <c r="J3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833EB609-54D5-4087-BEF6-13A6940A2C3C}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="17">
+        <v>108.36282894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="17">
+        <v>22.819417219999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C960C8AD-1E03-4989-BBF3-C9DF88AEFC56}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/comman/upload.xlsx
+++ b/comman/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\loadtestdata\comman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4283632-6037-4FE1-8D46-420801F1C9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FFE35-2770-42FF-9594-A3AFF1D89A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1035" windowWidth="25680" windowHeight="14565" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1035" windowWidth="25680" windowHeight="14565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,121 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{01B1CC51-8588-40D8-A21B-D3B48F5DE623}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示经纬度为0,1表示用原来的经纬度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C85741E3-4117-452F-8968-485A405FE0EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+定位中断：有效定位数据时间间隔大于等于10分钟
+离线位移：时间大于30分钟，位移大于50km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{D1C9A9E8-0C0A-4F94-A7E1-CB3DC080E185}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示没有中断位移，1表示为中断位移</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{4FAD903E-1319-47F2-8611-2D7A50330FA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
@@ -186,7 +301,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
@@ -223,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
   <si>
     <t>报警类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,6 +1068,50 @@
   </si>
   <si>
     <t>0x14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆定位统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星颗数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断位移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1547,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0EF761-D511-4DF0-97F4-1603D34BE1BD}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1955,7 +2114,7 @@
         <v>59</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>120</v>
@@ -2123,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACACEEA1-E2CE-428D-BA94-C3330C5761E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2648,14 +2807,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D163D-C7AD-43AD-AC38-096B62E888E4}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D163D-C7AD-43AD-AC38-096B62E888E4}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2795,15 +2957,219 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3002,7 +3368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C960C8AD-1E03-4989-BBF3-C9DF88AEFC56}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/comman/upload.xlsx
+++ b/comman/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\loadtestdata\comman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FFE35-2770-42FF-9594-A3AFF1D89A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF361B-A93A-478A-9236-7AFCD4ADC346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1035" windowWidth="25680" windowHeight="14565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1035" windowWidth="25680" windowHeight="14565" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,6 +123,84 @@
       </text>
     </comment>
     <comment ref="G15" authorId="0" shapeId="0" xr:uid="{4FAD903E-1319-47F2-8611-2D7A50330FA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{9F657C35-919A-4A7D-A0B4-A16CEEE6A0DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0" shapeId="0" xr:uid="{233D24CD-76EB-4C08-9D0B-130B747FB25C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0" shapeId="0" xr:uid="{9DF7364A-37BC-4646-A42C-3781A9D6989F}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1200,11 +1278,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1246,6 +1339,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1706,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0EF761-D511-4DF0-97F4-1603D34BE1BD}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -2808,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D163D-C7AD-43AD-AC38-096B62E888E4}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2820,7 +2915,7 @@
     <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>159</v>
       </c>
@@ -2840,7 +2935,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>154</v>
       </c>
@@ -2872,7 +2967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>158</v>
       </c>
@@ -2904,7 +2999,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>157</v>
       </c>
@@ -2936,12 +3031,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2949,7 +3044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -2957,7 +3052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>187</v>
       </c>
@@ -2977,186 +3072,627 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>190</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="21">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="22">
+        <v>3</v>
+      </c>
+      <c r="J9" s="22">
+        <v>3</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22">
+        <v>3</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
+        <v>3</v>
+      </c>
+      <c r="O9" s="22">
+        <v>3</v>
+      </c>
+      <c r="P9" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>3</v>
+      </c>
+      <c r="R9" s="21">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21">
+        <v>3</v>
+      </c>
+      <c r="T9" s="21">
+        <v>1</v>
+      </c>
+      <c r="U9" s="21">
+        <v>3</v>
+      </c>
+      <c r="V9" s="21">
+        <v>3</v>
+      </c>
+      <c r="W9" s="22">
+        <v>3</v>
+      </c>
+      <c r="X9" s="22">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>188</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1</v>
+      </c>
+      <c r="L10" s="22">
+        <v>1</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1</v>
+      </c>
+      <c r="O10" s="22">
+        <v>1</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21">
+        <v>1</v>
+      </c>
+      <c r="S10" s="21">
+        <v>1</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21">
+        <v>1</v>
+      </c>
+      <c r="V10" s="21">
+        <v>1</v>
+      </c>
+      <c r="W10" s="22">
+        <v>1</v>
+      </c>
+      <c r="X10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>189</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22">
+        <v>1</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="22">
+        <v>1</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21">
+        <v>1</v>
+      </c>
+      <c r="S11" s="21">
+        <v>1</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <v>1</v>
+      </c>
+      <c r="V11" s="21">
+        <v>1</v>
+      </c>
+      <c r="W11" s="22">
+        <v>1</v>
+      </c>
+      <c r="X11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>191</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="21">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="21">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="21">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="21">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="22">
+        <v>3</v>
+      </c>
+      <c r="J12" s="22">
+        <v>7</v>
+      </c>
+      <c r="K12" s="22">
+        <v>8</v>
+      </c>
+      <c r="L12" s="22">
+        <v>1</v>
+      </c>
+      <c r="M12" s="22">
+        <v>2</v>
+      </c>
+      <c r="N12" s="22">
+        <v>9</v>
+      </c>
+      <c r="O12" s="22">
+        <v>12</v>
+      </c>
+      <c r="P12" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>3</v>
+      </c>
+      <c r="R12" s="21">
+        <v>5</v>
+      </c>
+      <c r="S12" s="21">
+        <v>2</v>
+      </c>
+      <c r="T12" s="21">
+        <v>1</v>
+      </c>
+      <c r="U12" s="21">
+        <v>6</v>
+      </c>
+      <c r="V12" s="21">
+        <v>7</v>
+      </c>
+      <c r="W12" s="22">
+        <v>4</v>
+      </c>
+      <c r="X12" s="22">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>192</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="21">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>10</v>
+      </c>
+      <c r="O13" s="22">
+        <v>10</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
+        <v>0</v>
+      </c>
+      <c r="S13" s="21">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21">
+        <v>0</v>
+      </c>
+      <c r="U13" s="21">
+        <v>30</v>
+      </c>
+      <c r="V13" s="21">
+        <v>60</v>
+      </c>
+      <c r="W13" s="22">
+        <v>0</v>
+      </c>
+      <c r="X13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>197</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <v>0</v>
+      </c>
+      <c r="U14" s="21">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21">
+        <v>1</v>
+      </c>
+      <c r="W14" s="22">
+        <v>0</v>
+      </c>
+      <c r="X14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="21">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="21">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
         <v>25</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="21">
         <v>35</v>
+      </c>
+      <c r="I15" s="22">
+        <v>10</v>
+      </c>
+      <c r="J15" s="22">
+        <v>20</v>
+      </c>
+      <c r="K15" s="22">
+        <v>60</v>
+      </c>
+      <c r="L15" s="22">
+        <v>60</v>
+      </c>
+      <c r="M15" s="22">
+        <v>60</v>
+      </c>
+      <c r="N15" s="22">
+        <v>105</v>
+      </c>
+      <c r="O15" s="22">
+        <v>305</v>
+      </c>
+      <c r="P15" s="21">
+        <v>180</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>180</v>
+      </c>
+      <c r="R15" s="21">
+        <v>180</v>
+      </c>
+      <c r="S15" s="21">
+        <v>180</v>
+      </c>
+      <c r="T15" s="21">
+        <v>180</v>
+      </c>
+      <c r="U15" s="21">
+        <v>360</v>
+      </c>
+      <c r="V15" s="21">
+        <v>1800</v>
+      </c>
+      <c r="W15" s="22">
+        <v>360</v>
+      </c>
+      <c r="X15" s="22">
+        <v>360</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>480</v>
+      </c>
+      <c r="Z15" s="22">
+        <v>760</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>540</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>360</v>
+      </c>
+      <c r="AC15" s="22">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/comman/upload.xlsx
+++ b/comman/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\loadtestdata\comman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF361B-A93A-478A-9236-7AFCD4ADC346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134DC742-A41A-4D2A-BB34-5CAC8EEF716B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1035" windowWidth="25680" windowHeight="14565" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="1035" windowWidth="25680" windowHeight="14565" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="position_report" sheetId="3" r:id="rId3"/>
     <sheet name="sensor_report" sheetId="4" r:id="rId4"/>
     <sheet name="bubiao_report" sheetId="6" r:id="rId5"/>
-    <sheet name="sichuan_report" sheetId="7" r:id="rId6"/>
+    <sheet name="sichuan_report (3)" sheetId="12" r:id="rId6"/>
     <sheet name="shanxi_report" sheetId="8" r:id="rId7"/>
     <sheet name="puhuo_report" sheetId="10" r:id="rId8"/>
+    <sheet name="sichuan_report (4)" sheetId="13" r:id="rId9"/>
+    <sheet name="sichuan_report (2)" sheetId="11" r:id="rId10"/>
+    <sheet name="sichuan_report" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{01B1CC51-8588-40D8-A21B-D3B48F5DE623}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{76D3E3A5-829E-42C1-87DE-12EADC537129}">
       <text>
         <r>
           <rPr>
@@ -69,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C85741E3-4117-452F-8968-485A405FE0EB}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{8D3ABB46-244E-4EA7-95EF-54B6C5406E1A}">
       <text>
         <r>
           <rPr>
@@ -96,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{D1C9A9E8-0C0A-4F94-A7E1-CB3DC080E185}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{D86AA138-2240-4BEE-9D0D-D99B03A6888E}">
       <text>
         <r>
           <rPr>
@@ -122,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{4FAD903E-1319-47F2-8611-2D7A50330FA8}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{2FF4AF4D-8FAC-4809-8CAE-67F6CD45CB0C}">
       <text>
         <r>
           <rPr>
@@ -148,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{9F657C35-919A-4A7D-A0B4-A16CEEE6A0DD}">
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{8387583F-DFEB-4346-BC83-D186ED70B1A2}">
       <text>
         <r>
           <rPr>
@@ -174,33 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U15" authorId="0" shapeId="0" xr:uid="{233D24CD-76EB-4C08-9D0B-130B747FB25C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-设置时间必须大于中断次数*10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB15" authorId="0" shapeId="0" xr:uid="{9DF7364A-37BC-4646-A42C-3781A9D6989F}">
+    <comment ref="U15" authorId="0" shapeId="0" xr:uid="{AD469C20-186A-464E-B860-7430091205E8}">
       <text>
         <r>
           <rPr>
@@ -415,8 +392,405 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E14A6E72-E9FA-40BD-AEE6-84EB4C963B3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示经纬度为0,1表示用原来的经纬度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{9F155BD6-C2EA-4861-9D67-7E6517917D1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+定位中断：有效定位数据时间间隔大于等于10分钟
+离线位移：时间大于30分钟，位移大于50km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{020259BD-FC24-4EB3-93D7-585C2E9EBC56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示没有中断位移，1表示为中断位移</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{A19E3AF9-1FBF-4AD4-85AA-8C891AC6951B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{770372EA-A2A9-4A65-9AE7-80E758FFCA12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示经纬度为0,1表示用原来的经纬度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{D0155ACC-A5D2-42A1-8999-59A9E0A9D629}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+定位中断：有效定位数据时间间隔大于等于10分钟
+离线位移：时间大于30分钟，位移大于50km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{ABD036D9-25F0-4124-B597-43356A19E328}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示没有中断位移，1表示为中断位移</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{883A5DDE-0A2A-45F2-A2FF-5597690EBB33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{BB5F66C0-36B5-4E6C-8BCB-C66FFF269C22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0" shapeId="0" xr:uid="{0C58DB5B-43A5-44EA-A301-BB9692F9F058}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0" shapeId="0" xr:uid="{D6839CA9-2FD0-4CA2-BDB0-5E7CC7F8F777}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置时间必须大于中断次数*10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{01B1CC51-8588-40D8-A21B-D3B48F5DE623}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示经纬度为0,1表示用原来的经纬度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C85741E3-4117-452F-8968-485A405FE0EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+定位中断：有效定位数据时间间隔大于等于10分钟
+离线位移：时间大于30分钟，位移大于50km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{D1C9A9E8-0C0A-4F94-A7E1-CB3DC080E185}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0表示没有中断位移，1表示为中断位移</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="198">
   <si>
     <t>报警类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,7 +1671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1336,11 +1710,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1624,7 +2007,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,6 +2177,1178 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20567295-08BA-413A-B889-EA0DEEB4CF3C}">
+  <dimension ref="A1:AC15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="19">
+        <v>60</v>
+      </c>
+      <c r="C2" s="19">
+        <v>60</v>
+      </c>
+      <c r="D2" s="19">
+        <v>60</v>
+      </c>
+      <c r="E2" s="19">
+        <v>60</v>
+      </c>
+      <c r="F2" s="19">
+        <v>60</v>
+      </c>
+      <c r="G2" s="19">
+        <v>60</v>
+      </c>
+      <c r="H2" s="19">
+        <v>60</v>
+      </c>
+      <c r="I2" s="19">
+        <v>60</v>
+      </c>
+      <c r="J2" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4">
+        <v>95</v>
+      </c>
+      <c r="I3" s="4">
+        <v>98</v>
+      </c>
+      <c r="J3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21">
+        <v>3</v>
+      </c>
+      <c r="J9" s="21">
+        <v>3</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>3</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21">
+        <v>3</v>
+      </c>
+      <c r="O9" s="21">
+        <v>3</v>
+      </c>
+      <c r="P9" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>3</v>
+      </c>
+      <c r="R9" s="20">
+        <v>1</v>
+      </c>
+      <c r="S9" s="20">
+        <v>3</v>
+      </c>
+      <c r="T9" s="20">
+        <v>1</v>
+      </c>
+      <c r="U9" s="20">
+        <v>3</v>
+      </c>
+      <c r="V9" s="20">
+        <v>3</v>
+      </c>
+      <c r="W9" s="21">
+        <v>3</v>
+      </c>
+      <c r="X9" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <v>1</v>
+      </c>
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <v>1</v>
+      </c>
+      <c r="T10" s="20">
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <v>1</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1</v>
+      </c>
+      <c r="W10" s="21">
+        <v>1</v>
+      </c>
+      <c r="X10" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="21">
+        <v>1</v>
+      </c>
+      <c r="P11" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>1</v>
+      </c>
+      <c r="S11" s="20">
+        <v>1</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <v>1</v>
+      </c>
+      <c r="V11" s="20">
+        <v>1</v>
+      </c>
+      <c r="W11" s="21">
+        <v>1</v>
+      </c>
+      <c r="X11" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="20">
+        <v>4</v>
+      </c>
+      <c r="C12" s="20">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>6</v>
+      </c>
+      <c r="H12" s="20">
+        <v>7</v>
+      </c>
+      <c r="I12" s="21">
+        <v>3</v>
+      </c>
+      <c r="J12" s="21">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21">
+        <v>8</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21">
+        <v>2</v>
+      </c>
+      <c r="N12" s="21">
+        <v>9</v>
+      </c>
+      <c r="O12" s="21">
+        <v>12</v>
+      </c>
+      <c r="P12" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>3</v>
+      </c>
+      <c r="R12" s="20">
+        <v>5</v>
+      </c>
+      <c r="S12" s="20">
+        <v>2</v>
+      </c>
+      <c r="T12" s="20">
+        <v>1</v>
+      </c>
+      <c r="U12" s="20">
+        <v>6</v>
+      </c>
+      <c r="V12" s="20">
+        <v>7</v>
+      </c>
+      <c r="W12" s="21">
+        <v>4</v>
+      </c>
+      <c r="X12" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <v>10</v>
+      </c>
+      <c r="O13" s="21">
+        <v>10</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <v>30</v>
+      </c>
+      <c r="V13" s="20">
+        <v>60</v>
+      </c>
+      <c r="W13" s="21">
+        <v>0</v>
+      </c>
+      <c r="X13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1</v>
+      </c>
+      <c r="W14" s="21">
+        <v>0</v>
+      </c>
+      <c r="X14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>25</v>
+      </c>
+      <c r="H15" s="20">
+        <v>35</v>
+      </c>
+      <c r="I15" s="21">
+        <v>10</v>
+      </c>
+      <c r="J15" s="21">
+        <v>20</v>
+      </c>
+      <c r="K15" s="21">
+        <v>60</v>
+      </c>
+      <c r="L15" s="21">
+        <v>60</v>
+      </c>
+      <c r="M15" s="21">
+        <v>60</v>
+      </c>
+      <c r="N15" s="21">
+        <v>105</v>
+      </c>
+      <c r="O15" s="21">
+        <v>305</v>
+      </c>
+      <c r="P15" s="20">
+        <v>180</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>180</v>
+      </c>
+      <c r="R15" s="20">
+        <v>180</v>
+      </c>
+      <c r="S15" s="20">
+        <v>180</v>
+      </c>
+      <c r="T15" s="20">
+        <v>180</v>
+      </c>
+      <c r="U15" s="20">
+        <v>360</v>
+      </c>
+      <c r="V15" s="20">
+        <v>1800</v>
+      </c>
+      <c r="W15" s="21">
+        <v>360</v>
+      </c>
+      <c r="X15" s="21">
+        <v>360</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>480</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>760</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>540</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>360</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D163D-C7AD-43AD-AC38-096B62E888E4}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4">
+        <v>95</v>
+      </c>
+      <c r="I3" s="4">
+        <v>98</v>
+      </c>
+      <c r="J3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="20">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20">
+        <v>12</v>
+      </c>
+      <c r="H12" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="20">
+        <v>35</v>
+      </c>
+      <c r="C15" s="20">
+        <v>10</v>
+      </c>
+      <c r="D15" s="20">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20">
+        <v>95</v>
+      </c>
+      <c r="F15" s="20">
+        <v>35</v>
+      </c>
+      <c r="G15" s="20">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2902,11 +4457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D163D-C7AD-43AD-AC38-096B62E888E4}">
-  <dimension ref="A1:AC15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25FB39-178C-43AC-BD01-8CB660726A25}">
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2915,59 +4470,59 @@
     <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="22">
         <v>60</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="22">
         <v>60</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="22">
         <v>60</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="22">
         <v>60</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="22">
         <v>60</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="22">
         <v>60</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="22">
         <v>60</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="22">
         <v>60</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="22">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>158</v>
       </c>
@@ -2999,7 +4554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>157</v>
       </c>
@@ -3031,12 +4586,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +4599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -3052,19 +4607,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" t="s">
         <v>195</v>
       </c>
@@ -3072,627 +4627,480 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="21">
-        <v>3</v>
-      </c>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21">
-        <v>3</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>3</v>
-      </c>
-      <c r="H9" s="21">
-        <v>3</v>
-      </c>
-      <c r="I9" s="22">
-        <v>3</v>
-      </c>
-      <c r="J9" s="22">
-        <v>3</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1</v>
-      </c>
-      <c r="L9" s="22">
-        <v>3</v>
-      </c>
-      <c r="M9" s="22">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
-        <v>3</v>
-      </c>
-      <c r="O9" s="22">
-        <v>3</v>
-      </c>
-      <c r="P9" s="21">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>3</v>
-      </c>
-      <c r="R9" s="21">
-        <v>1</v>
-      </c>
-      <c r="S9" s="21">
-        <v>3</v>
-      </c>
-      <c r="T9" s="21">
-        <v>1</v>
-      </c>
-      <c r="U9" s="21">
-        <v>3</v>
-      </c>
-      <c r="V9" s="21">
-        <v>3</v>
-      </c>
-      <c r="W9" s="22">
-        <v>3</v>
-      </c>
-      <c r="X9" s="22">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="22">
-        <v>3</v>
-      </c>
-      <c r="AA9" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="22">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21">
+        <v>3</v>
+      </c>
+      <c r="J9" s="21">
+        <v>3</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>3</v>
+      </c>
+      <c r="M9" s="21">
+        <v>1</v>
+      </c>
+      <c r="N9" s="21">
+        <v>3</v>
+      </c>
+      <c r="O9" s="21">
+        <v>3</v>
+      </c>
+      <c r="P9" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>3</v>
+      </c>
+      <c r="R9" s="20">
+        <v>1</v>
+      </c>
+      <c r="S9" s="20">
+        <v>3</v>
+      </c>
+      <c r="T9" s="20">
+        <v>1</v>
+      </c>
+      <c r="U9" s="20">
+        <v>3</v>
+      </c>
+      <c r="V9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="21">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22">
-        <v>1</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1</v>
-      </c>
-      <c r="L10" s="22">
-        <v>1</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
-      <c r="O10" s="22">
-        <v>1</v>
-      </c>
-      <c r="P10" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>0</v>
-      </c>
-      <c r="R10" s="21">
-        <v>1</v>
-      </c>
-      <c r="S10" s="21">
-        <v>1</v>
-      </c>
-      <c r="T10" s="21">
-        <v>0</v>
-      </c>
-      <c r="U10" s="21">
-        <v>1</v>
-      </c>
-      <c r="V10" s="21">
-        <v>1</v>
-      </c>
-      <c r="W10" s="22">
-        <v>1</v>
-      </c>
-      <c r="X10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <v>1</v>
+      </c>
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <v>1</v>
+      </c>
+      <c r="T10" s="20">
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <v>1</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="22">
-        <v>1</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <v>1</v>
-      </c>
-      <c r="O11" s="22">
-        <v>1</v>
-      </c>
-      <c r="P11" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>0</v>
-      </c>
-      <c r="R11" s="21">
-        <v>1</v>
-      </c>
-      <c r="S11" s="21">
-        <v>1</v>
-      </c>
-      <c r="T11" s="21">
-        <v>0</v>
-      </c>
-      <c r="U11" s="21">
-        <v>1</v>
-      </c>
-      <c r="V11" s="21">
-        <v>1</v>
-      </c>
-      <c r="W11" s="22">
-        <v>1</v>
-      </c>
-      <c r="X11" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="O11" s="21">
+        <v>1</v>
+      </c>
+      <c r="P11" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>1</v>
+      </c>
+      <c r="S11" s="20">
+        <v>1</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <v>1</v>
+      </c>
+      <c r="V11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
-        <v>3</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="20">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>2</v>
       </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
         <v>6</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>7</v>
       </c>
-      <c r="I12" s="22">
-        <v>3</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="I12" s="21">
+        <v>3</v>
+      </c>
+      <c r="J12" s="21">
         <v>7</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>8</v>
       </c>
-      <c r="L12" s="22">
-        <v>1</v>
-      </c>
-      <c r="M12" s="22">
+      <c r="L12" s="21">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21">
         <v>2</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <v>9</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="21">
         <v>12</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>4</v>
       </c>
-      <c r="Q12" s="21">
-        <v>3</v>
-      </c>
-      <c r="R12" s="21">
+      <c r="Q12" s="20">
+        <v>3</v>
+      </c>
+      <c r="R12" s="20">
         <v>5</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <v>2</v>
       </c>
-      <c r="T12" s="21">
-        <v>1</v>
-      </c>
-      <c r="U12" s="21">
+      <c r="T12" s="20">
+        <v>1</v>
+      </c>
+      <c r="U12" s="20">
         <v>6</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="20">
         <v>7</v>
       </c>
-      <c r="W12" s="22">
-        <v>4</v>
-      </c>
-      <c r="X12" s="22">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="22">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="22">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="22">
-        <v>6</v>
-      </c>
-      <c r="AC12" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="21">
-        <v>0</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
         <v>2</v>
       </c>
-      <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
         <v>10</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="21">
         <v>10</v>
       </c>
-      <c r="P13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0</v>
-      </c>
-      <c r="T13" s="21">
-        <v>0</v>
-      </c>
-      <c r="U13" s="21">
-        <v>30</v>
-      </c>
-      <c r="V13" s="21">
-        <v>60</v>
-      </c>
-      <c r="W13" s="22">
-        <v>0</v>
-      </c>
-      <c r="X13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="22">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <v>15</v>
+      </c>
+      <c r="V13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="21">
-        <v>0</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
-        <v>0</v>
-      </c>
-      <c r="T14" s="21">
-        <v>0</v>
-      </c>
-      <c r="U14" s="21">
-        <v>0</v>
-      </c>
-      <c r="V14" s="21">
-        <v>1</v>
-      </c>
-      <c r="W14" s="22">
-        <v>0</v>
-      </c>
-      <c r="X14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>2</v>
       </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21">
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
         <v>25</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>35</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <v>10</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>20</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>60</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <v>60</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <v>60</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <v>105</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="21">
         <v>305</v>
       </c>
-      <c r="P15" s="21">
-        <v>180</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>180</v>
-      </c>
-      <c r="R15" s="21">
-        <v>180</v>
-      </c>
-      <c r="S15" s="21">
-        <v>180</v>
-      </c>
-      <c r="T15" s="21">
-        <v>180</v>
-      </c>
-      <c r="U15" s="21">
-        <v>360</v>
-      </c>
-      <c r="V15" s="21">
-        <v>1800</v>
-      </c>
-      <c r="W15" s="22">
-        <v>360</v>
-      </c>
-      <c r="X15" s="22">
-        <v>360</v>
-      </c>
-      <c r="Y15" s="22">
-        <v>480</v>
-      </c>
-      <c r="Z15" s="22">
-        <v>760</v>
-      </c>
-      <c r="AA15" s="22">
-        <v>540</v>
-      </c>
-      <c r="AB15" s="22">
-        <v>360</v>
-      </c>
-      <c r="AC15" s="22">
-        <v>3000</v>
+      <c r="P15" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>30</v>
+      </c>
+      <c r="R15" s="20">
+        <v>40</v>
+      </c>
+      <c r="S15" s="20">
+        <v>50</v>
+      </c>
+      <c r="T15" s="20">
+        <v>60</v>
+      </c>
+      <c r="U15" s="20">
+        <v>160</v>
+      </c>
+      <c r="V15" s="20">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4026,4 +5434,368 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CB6E1F-CCB3-4A30-B7C1-3C9BF74C4366}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="23">
+        <v>60</v>
+      </c>
+      <c r="C2" s="23">
+        <v>60</v>
+      </c>
+      <c r="D2" s="23">
+        <v>60</v>
+      </c>
+      <c r="E2" s="23">
+        <v>60</v>
+      </c>
+      <c r="F2" s="23">
+        <v>60</v>
+      </c>
+      <c r="G2" s="23">
+        <v>60</v>
+      </c>
+      <c r="H2" s="23">
+        <v>60</v>
+      </c>
+      <c r="I2" s="23">
+        <v>60</v>
+      </c>
+      <c r="J2" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4">
+        <v>95</v>
+      </c>
+      <c r="I3" s="4">
+        <v>98</v>
+      </c>
+      <c r="J3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2</v>
+      </c>
+      <c r="F9" s="20">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="20">
+        <v>8</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20">
+        <v>9</v>
+      </c>
+      <c r="F12" s="20">
+        <v>17</v>
+      </c>
+      <c r="G12" s="20">
+        <v>19</v>
+      </c>
+      <c r="H12" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>25</v>
+      </c>
+      <c r="G15" s="20">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/comman/upload.xlsx
+++ b/comman/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\loadtestdata\comman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\loadtestdata\comman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134DC742-A41A-4D2A-BB34-5CAC8EEF716B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B793762-87D4-43C6-B023-E43BE6DA3E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1035" windowWidth="25680" windowHeight="14565" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="4545" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="sichuan_report (2)" sheetId="11" r:id="rId10"/>
     <sheet name="sichuan_report" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
   <si>
     <t>报警类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,6 +1564,42 @@
   </si>
   <si>
     <t>中断位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳驾驶报警统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息速度（km/h）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息时间（min）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶速度（km/h）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日间疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜间疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会夜间疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续驾驶时间（min）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2007,7 +2043,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4400,7 +4436,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4458,16 +4494,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25FB39-178C-43AC-BD01-8CB660726A25}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -5101,6 +5139,151 @@
       </c>
       <c r="V15" s="20">
         <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17">
+        <v>240</v>
+      </c>
+      <c r="C17">
+        <v>240</v>
+      </c>
+      <c r="D17">
+        <v>239</v>
+      </c>
+      <c r="E17">
+        <v>239</v>
+      </c>
+      <c r="F17">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+      <c r="H17">
+        <v>119</v>
+      </c>
+      <c r="I17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/comman/upload.xlsx
+++ b/comman/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\loadtestdata\comman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B793762-87D4-43C6-B023-E43BE6DA3E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64B7DF3-5D8E-48E2-AB33-FC6D164CB837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="4545" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
   <si>
     <t>报警类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1600,6 +1600,10 @@
   </si>
   <si>
     <t>持续驾驶时间（min）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计疲劳/夜间疲劳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4497,13 +4501,14 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
@@ -5158,7 +5163,7 @@
         <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
         <v>204</v>
@@ -5170,7 +5175,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -5198,8 +5203,20 @@
       <c r="I17">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>120</v>
+      </c>
+      <c r="K17">
+        <v>120</v>
+      </c>
+      <c r="L17">
+        <v>120</v>
+      </c>
+      <c r="M17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -5227,8 +5244,20 @@
       <c r="I18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>60</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -5256,8 +5285,20 @@
       <c r="I19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -5283,6 +5324,18 @@
         <v>5</v>
       </c>
       <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
         <v>5</v>
       </c>
     </row>
